--- a/TestResults/LanguagePost.xlsx
+++ b/TestResults/LanguagePost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="55">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -64,14 +64,14 @@
 	},
 	"language":
 	{
-		"languageCode":"zxc",
+		"languageCode":"lmn",
 		"nativeScriptLanguageName":"Test nativ Lang Name A",
 		"nativeScriptCode":"TestNTV",
 		"languageName":"Test lang Nm",
 		"locales":
 		[
 			{
-				"localeCode":"qw",
+				"localeCode":"lm",
 				"countryCode":"EV",
 				"scriptCode":"Ram",
 				"cldrVersionDate":"2019-06-30",
@@ -170,47 +170,314 @@
 }</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>404</t>
+    <t xml:space="preserve">Input_UserName: 123
+Input_languageCode: lmn
+Input_nativeScriptLanguageName: Test nativ Lang Name A
+Input_nativeScriptCode: TestNTV
+Input_languageName: Test lang Nm
+Input_LastUpdateUserName: 123
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_UserName: 123
+DB_languageCode: lmn
+DB_nativeScriptLanguageName: Test nativ Lang Name A
+DB_nativeScriptCode: TestNTV
+DB_languageName: Test lang Nm
+DB_LastUpdateUserName: 123
+</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"userName":"123",
 		"version":"1.0.0",
-		"transactionId":"17e2eacd-1903-432e-a153-10ede7c9e6eb",
-		"timeStamp":"2020-07-14 11:59:08",
-		"statusCode":"404",
+		"transactionId":"6806a1d7-f683-4471-947d-c12340f6f965",
+		"timeStamp":"2020-07-16 17:15:38",
+		"statusCode":"200",
 		"message":
 		{
-			"status":"ERROR",
-			"internalMessage":"Resource Not Found",
-			"data":
-			{
-				"errorMessage":"Request Submitted With Error"
-			}
+			"status":"SUCCESS",
+			"internalMessage":"Language Details successfully saved with languageCode :lmn",
+			"data":null
 		}
 	},
-	"errors":
-	[
-		{
-			"fieldName":"dayOfWeekNumber",
-			"message":" is not a valid value"
-		}
-	]
+	"data":
+	{
+		"languageCode":"lmn"
+	}
 }</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Resource Not Found</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Language Locales Table Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_localeCd: lm
+Input_countryCode: EV
+Input_localesScriptCd: Ram
+Input_cldrVersionDate: 2019-06-30
+Input_cldrVersionNumber: 1
+Input_dateFullFormatDescription: EEEE dd MMMM y
+Input_dateLongFormatDescription: dd MMMM y
+Input_dateMediumFormatDescription: dd MMM y
+Input_dateShortFormatDescription: y-MM-dd
+Input_localesEffectiveDate: 2021-09-30
+Input_localesExpirationDate: 2021-10-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_localeCd: lm
+DB_countryCode: EV
+DB_localesScriptCd: Ram
+DB_cldrVersionDate: 2019-06-30
+DB_cldrVersionNumber: 1
+DB_dateFullFormatDescription: EEEE dd MMMM y
+DB_dateLongFormatDescription: dd MMMM y
+DB_dateMediumFormatDescription: dd MMM y
+DB_dateShortFormatDescription: y-MM-dd
+DB_localesEffectiveDate: 2021-09-30
+DB_localesExpirationDate: 2021-10-31
+</t>
+  </si>
+  <si>
+    <t>Audit Language Table Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 123
+Input_languageCode: lmn
+Input_nativeScriptLanguageName: Test nativ Lang Name A
+Input_nativeScriptCode: TestNTV
+Input_languageName: Test lang Nm
+Input_LastUpdateUserName: 123
+Expected_RevisionTypeCd: 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_UserName: 123
+DB_languageCode: lmn
+DB_nativeScriptLanguageName: Test nativ Lang Name A
+DB_nativeScriptCode: TestNTV
+DB_languageName: Test lang Nm
+DB_LastUpdateUserName: 123
+DB_RevisionTypeCd: 0
+</t>
+  </si>
+  <si>
+    <t>Audit Language Table validation</t>
+  </si>
+  <si>
+    <t>Audit Locales Table Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_localeCd: lm
+Input_countryCode: EV
+Input_localesScriptCd: Ram
+Input_cldrVersionDate: 2019-06-30
+Input_cldrVersionNumber: 1
+Input_dateFullFormatDescription: EEEE dd MMMM y
+Input_dateLongFormatDescription: dd MMMM y
+Input_dateMediumFormatDescription: dd MMM y
+Input_dateShortFormatDescription: y-MM-dd
+Input_localesEffectiveDate: 2021-09-30
+Input_localesExpirationDate: 2021-10-31
+Expected_RevisionTypeCode:0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_localeCd: lm
+DB_countryCode: EV
+DB_localesScriptCd: Ram
+DB_cldrVersionDate: 2019-06-30
+DB_cldrVersionNumber: 1
+DB_dateFullFormatDescription: EEEE dd MMMM y
+DB_dateLongFormatDescription: dd MMMM y
+DB_dateMediumFormatDescription: dd MMM y
+DB_dateShortFormatDescription: y-MM-dd
+DB_localesEffectiveDate: 2021-09-30
+DB_localesExpirationDate: 2021-10-31
+DB_RevisionTypeCode: 0
+</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the Language POST request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_localeCode_1: lm
+DB_localeCode_1: lm
+JMS_countryCode_1: EV
+DB_countryCode_1: EV
+JMS_scriptCode_1: Ram
+DB_scriptCode_1: Ram
+JMS_cldrVersionDate_1: 2019-06-30
+DB_cldrVersionDate_1: 2019-06-30
+JMS_cldrVersionNumber_1: 1
+DB_cldrVersionNumber_1: 1
+JMS_dateFullFormatDescription_1: EEEE dd MMMM y
+DB_dateFullFormatDescription_1: EEEE dd MMMM y
+JMS_dateLongFormatDescription_1: dd MMMM y
+DB_dateLongFormatDescription1: dd MMMM y
+JMS_dateMediumFormatDescription_1: dd MMM y
+DB_dateMediumFormatDescription_1: dd MMM y
+JMS_dateShortFormatDescription1: y-MM-dd
+DB_dateShortFormatDescription_1: y-MM-dd
+JMS_effectiveDate_1: 2021-09-30
+DB_effectiveDate_1: 2021-09-30
+JMS_expirationDate_1: 2021-10-31
+DB_expirationDate_1: 2021-10-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_dayOfWeekNumber_1: 1
+DB_dayOfWeekNumber_1: 1
+JMS_translatedDayOfWeekName_1: Test_Mon
+DB_translatedDayOfWeekName_1: Test_Mon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_dayOfWeekNumber_2: 2
+DB_dayOfWeekNumber_2: 2
+JMS_translatedDayOfWeekName_2: Test_Tue
+DB_translatedDayOfWeekName_2: Test_Tue
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_dayOfWeekNumber_3: 3
+DB_dayOfWeekNumber_3: 3
+JMS_translatedDayOfWeekName_3: Test_Wed
+DB_translatedDayOfWeekName_3: Test_Wed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_dayOfWeekNumber_4: 4
+DB_dayOfWeekNumber_4: 4
+JMS_translatedDayOfWeekName_4: Test_Thur
+DB_translatedDayOfWeekName_4: Test_Thur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_dayOfWeekNumber_5: 5
+DB_dayOfWeekNumber_5: 5
+JMS_translatedDayOfWeekName_5: Test_Fri
+DB_translatedDayOfWeekName_5: Test_Fri
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_dayOfWeekNumber_6: 6
+DB_dayOfWeekNumber_6: 6
+JMS_translatedDayOfWeekName_6: Test_Sat
+DB_translatedDayOfWeekName_6: Test_Sat
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_dayOfWeekNumber_7: 7
+DB_dayOfWeekNumber_7: 7
+JMS_translatedDayOfWeekName_7: Test_Sun
+DB_translatedDayOfWeekName_7: Test_Sun
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_1: 1
+DB_monthOfYearNumber_1: 1
+JMS_translatedMonthOfYearName_1: Test_Jan
+DB_translatedMonthOfYearName_1: Test_Jan
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_2: 2
+DB_monthOfYearNumber_2: 2
+JMS_translatedMonthOfYearName_2: Test_Feb
+DB_translatedMonthOfYearName_2: Test_Feb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_3: 3
+DB_monthOfYearNumber_3: 3
+JMS_translatedMonthOfYearName_3: Test_Mar
+DB_translatedMonthOfYearName_3: Test_Mar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_4: 4
+DB_monthOfYearNumber_4: 4
+JMS_translatedMonthOfYearName_4: Test_Apr
+DB_translatedMonthOfYearName_4: Test_Apr
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_5: 5
+DB_monthOfYearNumber_5: 5
+JMS_translatedMonthOfYearName_5: Test_May
+DB_translatedMonthOfYearName_5: Test_May
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_6: 6
+DB_monthOfYearNumber_6: 6
+JMS_translatedMonthOfYearName_6: Test_June
+DB_translatedMonthOfYearName_6: Test_June
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_7: 7
+DB_monthOfYearNumber_7: 7
+JMS_translatedMonthOfYearName_7: Test_July
+DB_translatedMonthOfYearName_7: Test_July
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_8: 8
+DB_monthOfYearNumber_8: 8
+JMS_translatedMonthOfYearName_8: Test_Aug
+DB_translatedMonthOfYearName_8: Test_Aug
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_9: 9
+DB_monthOfYearNumber_9: 9
+JMS_translatedMonthOfYearName_9: Test_Sept
+DB_translatedMonthOfYearName_9: Test_Sept
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_10: 10
+DB_monthOfYearNumber_10: 10
+JMS_translatedMonthOfYearName_10: Test_Oct
+DB_translatedMonthOfYearName_10: Test_Oct
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_11: 11
+DB_monthOfYearNumber_11: 11
+JMS_translatedMonthOfYearName_11: Test_Nov
+DB_translatedMonthOfYearName_11: Test_Nov
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMS_monthOfYearNumber_12: 12
+DB_monthOfYearNumber_12: 12
+JMS_translatedMonthOfYearName_12: Test_Dec
+DB_translatedMonthOfYearName_12: Test_Dec
+</t>
   </si>
 </sst>
 </file>
@@ -218,7 +485,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="266">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -235,57 +502,1322 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="4">
@@ -354,7 +1886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -390,6 +1922,765 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -404,17 +2695,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -469,24 +2760,852 @@
         <v>15</v>
       </c>
       <c r="F2" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="L2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="L2"/>
+      <c r="K3" t="s" s="23">
+        <v>22</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>22</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>21</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>21</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>21</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>21</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>21</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>21</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>21</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>21</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>21</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>21</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>49</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>21</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s" s="213">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s" s="214">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s" s="217">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s" s="218">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>21</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s" s="224">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s" s="225">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s" s="228">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s" s="229">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>21</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="233">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="234">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s" s="235">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s" s="236">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s" s="237">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s" s="238">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s" s="239">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s" s="240">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s" s="241">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s" s="242">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s" s="243">
+        <v>21</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="244">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s" s="245">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s" s="246">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s" s="247">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s" s="248">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s" s="249">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s" s="250">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s" s="251">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s" s="252">
+        <v>53</v>
+      </c>
+      <c r="J24" t="s" s="253">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s" s="254">
+        <v>21</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="255">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s" s="256">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s" s="257">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s" s="258">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s" s="259">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s" s="260">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s" s="261">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s" s="262">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s" s="263">
+        <v>54</v>
+      </c>
+      <c r="J25" t="s" s="264">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s" s="265">
+        <v>21</v>
+      </c>
+      <c r="L25"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
